--- a/hitung.xlsx
+++ b/hitung.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farza Nurifan\Documents\OneDrive\Dokumen\Code Paper\Tugas Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E8378-1298-4B46-AEE8-63D4C88D99C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C69B53-B2FA-4F24-9DE7-7AE36606C116}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8A2EE1C6-CDC7-4274-AAA1-141FDCB39457}"/>
+    <workbookView xWindow="6390" yWindow="2370" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{8A2EE1C6-CDC7-4274-AAA1-141FDCB39457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -430,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE48BCDD-98B6-4EB6-BDD5-9DA283123EA1}">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17:H23"/>
     </sheetView>
   </sheetViews>
@@ -654,4 +655,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C1FD5F-C6C5-45E7-99E6-8AF8B742F5D1}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>94</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <f>B2/(B2+C2)</f>
+        <v>0.72868217054263562</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <f>B2/(B2+B3)</f>
+        <v>0.92156862745098034</v>
+      </c>
+      <c r="H3">
+        <f>2*((F2*F3)/(F2+F3))</f>
+        <v>0.81385281385281383</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>113</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <f>B5/(B5+C5)</f>
+        <v>0.87596899224806202</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f>B5/(B5+B6)</f>
+        <v>0.8188405797101449</v>
+      </c>
+      <c r="H6">
+        <f>2*((F5*F6)/(F5+F6))</f>
+        <v>0.84644194756554314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>